--- a/SystemSafetyLog/SystemSafetyLog.xlsx
+++ b/SystemSafetyLog/SystemSafetyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef84c8c5c6c853c7/Desktop/ECE 44X/ECE 442/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF533C3E-17D9-4486-A628-6C340E4C8165}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DC33FDF9-270E-4263-B1B8-90E5B3DEA3C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="2166" windowWidth="17280" windowHeight="8994" xr2:uid="{5FDB4FA7-3FFC-4A31-883F-2DF641E92F6D}"/>
+    <workbookView xWindow="564" yWindow="2502" windowWidth="17280" windowHeight="8994" xr2:uid="{5FDB4FA7-3FFC-4A31-883F-2DF641E92F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB06B5-0D03-4E4E-8D67-2C8D5E7CDF6C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -444,7 +444,7 @@
         <v>9.5</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D65" si="0">IF($C2&gt;=9.5,"PASS","FAIL")</f>
+        <f t="shared" ref="D2:D11" si="0">IF($C2&gt;=9.5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
@@ -566,6 +566,21 @@
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
